--- a/list/template.xlsx
+++ b/list/template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yamazaki_Rei\misc\BillGenerator\src\list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rei_y/Projects/AnexAutoInvoicer/list/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDADB9B-5F8C-6B4A-9490-1D1B9E8D66D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2340" windowWidth="23715" windowHeight="14580" tabRatio="903"/>
+    <workbookView xWindow="2160" yWindow="2340" windowWidth="23720" windowHeight="14580" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原本" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">原本!$A$1:$L$49</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>３月分請求書</t>
   </si>
@@ -126,9 +127,6 @@
   </si>
   <si>
     <t>※</t>
-  </si>
-  <si>
-    <t>ドコモペイ　ⅾ払い口座　　0361　6929　78663 （ご希望の方は別途ご連絡ください。QRコードを送ります）</t>
   </si>
   <si>
     <t>ラインペイ　（ご希望の方は別途ご連絡ください。）</t>
@@ -211,7 +209,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
@@ -220,7 +218,7 @@
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="179" formatCode="000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -791,9 +789,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -848,10 +843,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -997,7 +995,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="2" builtinId="26"/>
   </cellStyles>
@@ -1426,30 +1424,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24:L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="8" width="6.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="1" customWidth="1"/>
-    <col min="10" max="12" width="6.875" style="1" customWidth="1"/>
+    <col min="1" max="8" width="6.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="6.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="21.375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="37.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="37.1640625" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="21" customHeight="1">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1464,13 +1462,13 @@
       <c r="J1" s="39"/>
       <c r="K1" s="39"/>
       <c r="L1" s="39"/>
-      <c r="O1" s="27"/>
+      <c r="O1" s="26"/>
       <c r="P1" s="56"/>
       <c r="Q1" s="56"/>
     </row>
-    <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
-        <v>39</v>
+    <row r="2" spans="1:17" ht="21" customHeight="1">
+      <c r="A2" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -1483,20 +1481,20 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
-      <c r="O2" s="28"/>
+      <c r="O2" s="27"/>
       <c r="P2" s="56"/>
       <c r="Q2" s="56"/>
     </row>
-    <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
-        <v>40</v>
+    <row r="3" spans="1:17" ht="21" customHeight="1">
+      <c r="A3" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="6" customHeight="1"/>
+    <row r="5" spans="1:17">
       <c r="H5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1504,7 +1502,7 @@
       <c r="K5" s="40"/>
       <c r="L5" s="40"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17">
       <c r="A6" s="77"/>
       <c r="B6" s="77"/>
       <c r="C6" s="77"/>
@@ -1515,24 +1513,24 @@
       <c r="H6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="L6" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="77"/>
       <c r="B7" s="77"/>
       <c r="C7" s="77"/>
       <c r="D7" s="77"/>
       <c r="E7" s="64"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1543,7 +1541,7 @@
       <c r="I8"/>
       <c r="Q8" s="64"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1554,37 +1552,37 @@
       </c>
       <c r="Q9" s="64"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17">
       <c r="H10"/>
       <c r="I10" s="13" t="s">
         <v>6</v>
       </c>
       <c r="Q10" s="64"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17">
       <c r="H11"/>
       <c r="I11" s="13" t="s">
         <v>7</v>
       </c>
       <c r="Q11" s="64"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17">
       <c r="H12" s="4"/>
       <c r="I12" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17">
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="17" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="22.5" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="41" t="s">
         <v>10</v>
@@ -1606,26 +1604,23 @@
       </c>
       <c r="L17" s="44"/>
     </row>
-    <row r="18" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="22.5" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
-      <c r="H18" s="22"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
-      <c r="K18" s="47">
-        <f t="shared" ref="K18:K26" si="0">IF(B18="","",H18*I18)</f>
-        <v>0</v>
-      </c>
+      <c r="K18" s="47"/>
       <c r="L18" s="48"/>
     </row>
-    <row r="19" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="22.5" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
@@ -1633,16 +1628,13 @@
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
-      <c r="H19" s="22"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="46"/>
       <c r="J19" s="46"/>
-      <c r="K19" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="K19" s="47"/>
       <c r="L19" s="48"/>
     </row>
-    <row r="20" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="22.5" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
@@ -1650,13 +1642,13 @@
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
-      <c r="H20" s="22"/>
+      <c r="H20" s="21"/>
       <c r="I20" s="46"/>
       <c r="J20" s="46"/>
       <c r="K20" s="47"/>
       <c r="L20" s="48"/>
     </row>
-    <row r="21" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="22.5" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="45"/>
       <c r="C21" s="45"/>
@@ -1664,15 +1656,15 @@
       <c r="E21" s="45"/>
       <c r="F21" s="45"/>
       <c r="G21" s="45"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="23"/>
       <c r="K21" s="49"/>
       <c r="L21" s="50"/>
       <c r="M21"/>
       <c r="N21"/>
     </row>
-    <row r="22" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="22.5" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="51" t="s">
         <v>14</v>
@@ -1691,26 +1683,23 @@
       </c>
       <c r="L22" s="55"/>
     </row>
-    <row r="23" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="22.5" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
       <c r="G23" s="45"/>
-      <c r="H23" s="22"/>
+      <c r="H23" s="21"/>
       <c r="I23" s="46"/>
       <c r="J23" s="46"/>
-      <c r="K23" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K23" s="47"/>
       <c r="L23" s="48"/>
     </row>
-    <row r="24" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="22.5" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="45"/>
       <c r="C24" s="45"/>
@@ -1718,16 +1707,13 @@
       <c r="E24" s="45"/>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
-      <c r="H24" s="22"/>
+      <c r="H24" s="21"/>
       <c r="I24" s="46"/>
       <c r="J24" s="46"/>
-      <c r="K24" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="K24" s="47"/>
       <c r="L24" s="48"/>
     </row>
-    <row r="25" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="22.5" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="45"/>
       <c r="C25" s="45"/>
@@ -1735,16 +1721,13 @@
       <c r="E25" s="45"/>
       <c r="F25" s="45"/>
       <c r="G25" s="45"/>
-      <c r="H25" s="22"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="46"/>
       <c r="J25" s="46"/>
-      <c r="K25" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="K25" s="47"/>
       <c r="L25" s="48"/>
     </row>
-    <row r="26" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="22.5" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="45"/>
       <c r="C26" s="45"/>
@@ -1752,30 +1735,27 @@
       <c r="E26" s="45"/>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
-      <c r="H26" s="25"/>
+      <c r="H26" s="24"/>
       <c r="I26" s="46"/>
       <c r="J26" s="46"/>
-      <c r="K26" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="K26" s="47"/>
       <c r="L26" s="48"/>
     </row>
-    <row r="27" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="22.5" customHeight="1">
       <c r="A27" s="7"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
       <c r="K27" s="47"/>
       <c r="L27" s="48"/>
     </row>
-    <row r="28" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="22.5" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="51" t="s">
         <v>15</v>
@@ -1794,7 +1774,7 @@
       </c>
       <c r="L28" s="79"/>
     </row>
-    <row r="29" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="22.5" customHeight="1">
       <c r="A29" s="80" t="s">
         <v>16</v>
       </c>
@@ -1813,8 +1793,8 @@
       </c>
       <c r="L29" s="84"/>
     </row>
-    <row r="30" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15" thickBot="1"/>
+    <row r="31" spans="1:14" ht="13.5" customHeight="1">
       <c r="A31" s="85" t="s">
         <v>17</v>
       </c>
@@ -1830,9 +1810,9 @@
       <c r="K31" s="86"/>
       <c r="L31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="13.5" customHeight="1">
       <c r="A32" s="65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="66"/>
       <c r="C32" s="66"/>
@@ -1846,7 +1826,7 @@
       <c r="K32" s="66"/>
       <c r="L32" s="67"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12">
       <c r="A33" s="68"/>
       <c r="B33" s="69"/>
       <c r="C33" s="69"/>
@@ -1860,7 +1840,7 @@
       <c r="K33" s="69"/>
       <c r="L33" s="70"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12">
       <c r="A34" s="68"/>
       <c r="B34" s="69"/>
       <c r="C34" s="69"/>
@@ -1874,7 +1854,7 @@
       <c r="K34" s="69"/>
       <c r="L34" s="70"/>
     </row>
-    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12" ht="18" customHeight="1">
       <c r="A35" s="71"/>
       <c r="B35" s="72"/>
       <c r="C35" s="72"/>
@@ -1888,7 +1868,7 @@
       <c r="K35" s="72"/>
       <c r="L35" s="73"/>
     </row>
-    <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12" ht="18" customHeight="1">
       <c r="A36" s="71"/>
       <c r="B36" s="72"/>
       <c r="C36" s="72"/>
@@ -1902,7 +1882,7 @@
       <c r="K36" s="72"/>
       <c r="L36" s="73"/>
     </row>
-    <row r="37" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12" ht="13.5" customHeight="1">
       <c r="A37" s="71"/>
       <c r="B37" s="72"/>
       <c r="C37" s="72"/>
@@ -1916,7 +1896,7 @@
       <c r="K37" s="72"/>
       <c r="L37" s="73"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12">
       <c r="A38" s="71"/>
       <c r="B38" s="72"/>
       <c r="C38" s="72"/>
@@ -1930,7 +1910,7 @@
       <c r="K38" s="72"/>
       <c r="L38" s="73"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12">
       <c r="A39" s="74"/>
       <c r="B39" s="75"/>
       <c r="C39" s="75"/>
@@ -1944,21 +1924,21 @@
       <c r="K39" s="75"/>
       <c r="L39" s="76"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="29"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="31"/>
-    </row>
-    <row r="41" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:12">
+      <c r="A40" s="28"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="30"/>
+    </row>
+    <row r="41" spans="1:12" ht="15">
       <c r="A41" s="57" t="s">
         <v>18</v>
       </c>
@@ -1974,7 +1954,7 @@
       <c r="K41" s="58"/>
       <c r="L41" s="59"/>
     </row>
-    <row r="42" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:12" ht="15">
       <c r="A42" s="60" t="s">
         <v>19</v>
       </c>
@@ -1990,8 +1970,8 @@
       <c r="K42" s="61"/>
       <c r="L42" s="62"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A43" s="32" t="s">
+    <row r="43" spans="1:12">
+      <c r="A43" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="8"/>
@@ -2004,10 +1984,10 @@
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
-      <c r="L43" s="33"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A44" s="34"/>
+      <c r="L43" s="32"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="33"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8" t="s">
@@ -2028,10 +2008,10 @@
       <c r="K44" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L44" s="33"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A45" s="35"/>
+      <c r="L44" s="32"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="34"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="16" t="s">
@@ -2052,10 +2032,10 @@
       <c r="K45" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L45" s="33"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="35"/>
+      <c r="L45" s="32"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="34"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="9" t="s">
@@ -2074,15 +2054,11 @@
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="10"/>
-      <c r="L46" s="33"/>
-    </row>
-    <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="L46" s="32"/>
+    </row>
+    <row r="47" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A47" s="35"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -2092,14 +2068,14 @@
       <c r="I47" s="15"/>
       <c r="J47" s="11"/>
       <c r="K47" s="10"/>
-      <c r="L47" s="33"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A48" s="36" t="s">
+      <c r="L47" s="32"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -2110,12 +2086,12 @@
       <c r="I48" s="15"/>
       <c r="J48" s="11"/>
       <c r="K48" s="10"/>
-      <c r="L48" s="33"/>
-    </row>
-    <row r="49" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="37"/>
+      <c r="L48" s="32"/>
+    </row>
+    <row r="49" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A49" s="36"/>
       <c r="B49" s="63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C49" s="63"/>
       <c r="D49" s="63"/>
@@ -2126,7 +2102,7 @@
       <c r="I49" s="63"/>
       <c r="J49" s="63"/>
       <c r="K49" s="63"/>
-      <c r="L49" s="38"/>
+      <c r="L49" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -2182,7 +2158,7 @@
   <phoneticPr fontId="7"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/list/template.xlsx
+++ b/list/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rei_y/Projects/AnexAutoInvoicer/list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDADB9B-5F8C-6B4A-9490-1D1B9E8D66D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E90DBF-C5DA-3346-9BE4-CBA9ADB4D650}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2340" windowWidth="23720" windowHeight="14580" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2340" windowWidth="26540" windowHeight="14580" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原本" sheetId="1" r:id="rId1"/>
@@ -732,7 +732,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -804,9 +804,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -992,6 +989,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1431,7 +1437,7 @@
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24:L24"/>
+      <selection activeCell="B20" sqref="B20:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1448,23 +1454,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1">
       <c r="A2" s="20" t="s">
@@ -1481,9 +1487,9 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
     </row>
     <row r="3" spans="1:17" ht="21" customHeight="1">
       <c r="A3" s="20" t="s">
@@ -1498,37 +1504,37 @@
       <c r="H5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="64" t="s">
+      <c r="A6" s="76"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="63" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="37" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="64"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="63"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="3"/>
@@ -1539,7 +1545,7 @@
         <v>4</v>
       </c>
       <c r="I8"/>
-      <c r="Q8" s="64"/>
+      <c r="Q8" s="63"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="3"/>
@@ -1550,21 +1556,21 @@
       <c r="I9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Q9" s="64"/>
+      <c r="Q9" s="63"/>
     </row>
     <row r="10" spans="1:17">
       <c r="H10"/>
       <c r="I10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q10" s="64"/>
+      <c r="Q10" s="63"/>
     </row>
     <row r="11" spans="1:17">
       <c r="H11"/>
       <c r="I11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="Q11" s="64"/>
+      <c r="Q11" s="63"/>
     </row>
     <row r="12" spans="1:17">
       <c r="H12" s="4"/>
@@ -1584,394 +1590,394 @@
     </row>
     <row r="17" spans="1:14" ht="22.5" customHeight="1">
       <c r="A17" s="5"/>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
       <c r="H17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="43"/>
-      <c r="K17" s="42" t="s">
+      <c r="J17" s="42"/>
+      <c r="K17" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="44"/>
+      <c r="L17" s="43"/>
     </row>
     <row r="18" spans="1:14" ht="22.5" customHeight="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="48"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="47"/>
     </row>
     <row r="19" spans="1:14" ht="22.5" customHeight="1">
       <c r="A19" s="7"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="48"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="47"/>
     </row>
     <row r="20" spans="1:14" ht="22.5" customHeight="1">
       <c r="A20" s="7"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="48"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="47"/>
     </row>
     <row r="21" spans="1:14" ht="22.5" customHeight="1">
       <c r="A21" s="7"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
       <c r="H21" s="21"/>
       <c r="I21" s="22"/>
       <c r="J21" s="23"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="50"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="49"/>
       <c r="M21"/>
       <c r="N21"/>
     </row>
     <row r="22" spans="1:14" ht="22.5" customHeight="1">
       <c r="A22" s="7"/>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54">
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="53">
         <f>SUM(K18:L21)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="55"/>
+      <c r="L22" s="54"/>
     </row>
     <row r="23" spans="1:14" ht="22.5" customHeight="1">
       <c r="A23" s="7"/>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="48"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="47"/>
     </row>
     <row r="24" spans="1:14" ht="22.5" customHeight="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
       <c r="H24" s="21"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="48"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="47"/>
     </row>
     <row r="25" spans="1:14" ht="22.5" customHeight="1">
       <c r="A25" s="7"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="48"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="47"/>
     </row>
     <row r="26" spans="1:14" ht="22.5" customHeight="1">
       <c r="A26" s="7"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
       <c r="H26" s="24"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="48"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="47"/>
     </row>
     <row r="27" spans="1:14" ht="22.5" customHeight="1">
       <c r="A27" s="7"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="89"/>
       <c r="H27" s="24"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="48"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="47"/>
     </row>
     <row r="28" spans="1:14" ht="22.5" customHeight="1">
       <c r="A28" s="7"/>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="78">
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="77">
         <f>SUM(K23:L27)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="79"/>
+      <c r="L28" s="78"/>
     </row>
     <row r="29" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A29" s="80" t="s">
+      <c r="A29" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="83">
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="82">
         <f>K22+K28</f>
         <v>0</v>
       </c>
-      <c r="L29" s="84"/>
+      <c r="L29" s="83"/>
     </row>
     <row r="30" spans="1:14" ht="15" thickBot="1"/>
     <row r="31" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A31" s="85" t="s">
+      <c r="A31" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="87"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="67"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="66"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="68"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="70"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="69"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="68"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="70"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="69"/>
     </row>
     <row r="35" spans="1:12" ht="18" customHeight="1">
-      <c r="A35" s="71"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="73"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="72"/>
     </row>
     <row r="36" spans="1:12" ht="18" customHeight="1">
-      <c r="A36" s="71"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="73"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="72"/>
     </row>
     <row r="37" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A37" s="71"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="73"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="72"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="71"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="73"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="72"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="74"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="76"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="75"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="28"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="30"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="29"/>
     </row>
     <row r="41" spans="1:12" ht="15">
-      <c r="A41" s="57" t="s">
+      <c r="A41" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="59"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="58"/>
     </row>
     <row r="42" spans="1:12" ht="15">
-      <c r="A42" s="60" t="s">
+      <c r="A42" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="62"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="61"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="8"/>
@@ -1984,10 +1990,10 @@
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
-      <c r="L43" s="32"/>
+      <c r="L43" s="31"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="33"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8" t="s">
@@ -2008,10 +2014,10 @@
       <c r="K44" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L44" s="32"/>
+      <c r="L44" s="31"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="34"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="16" t="s">
@@ -2032,10 +2038,10 @@
       <c r="K45" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L45" s="32"/>
+      <c r="L45" s="31"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="34"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="9" t="s">
@@ -2054,10 +2060,10 @@
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="10"/>
-      <c r="L46" s="32"/>
+      <c r="L46" s="31"/>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A47" s="35"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -2068,10 +2074,10 @@
       <c r="I47" s="15"/>
       <c r="J47" s="11"/>
       <c r="K47" s="10"/>
-      <c r="L47" s="32"/>
+      <c r="L47" s="31"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B48" s="11" t="s">
@@ -2086,26 +2092,26 @@
       <c r="I48" s="15"/>
       <c r="J48" s="11"/>
       <c r="K48" s="10"/>
-      <c r="L48" s="32"/>
+      <c r="L48" s="31"/>
     </row>
     <row r="49" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A49" s="36"/>
-      <c r="B49" s="63" t="s">
+      <c r="A49" s="35"/>
+      <c r="B49" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="37"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="49">
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="A41:L41"/>
@@ -2127,6 +2133,7 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B27:G27"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="K24:L24"/>
